--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Birlasoft Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Birlasoft Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -946,7 +946,7 @@
         <v>1.48</v>
       </c>
       <c r="X4">
-        <v>117.872</v>
+        <v>117.87</v>
       </c>
       <c r="Y4">
         <v>11.44</v>
@@ -1386,7 +1386,7 @@
         <v>2.09</v>
       </c>
       <c r="X8">
-        <v>117.872</v>
+        <v>117.87</v>
       </c>
       <c r="Y8">
         <v>8.869999999999999</v>
@@ -1496,7 +1496,7 @@
         <v>1.12</v>
       </c>
       <c r="X9">
-        <v>117.872</v>
+        <v>117.87</v>
       </c>
       <c r="Y9">
         <v>16.69</v>
@@ -1606,7 +1606,7 @@
         <v>1.62</v>
       </c>
       <c r="X10">
-        <v>117.872</v>
+        <v>117.87</v>
       </c>
       <c r="Y10">
         <v>16.86</v>
@@ -2266,7 +2266,7 @@
         <v>2.17</v>
       </c>
       <c r="X16">
-        <v>117.872</v>
+        <v>117.87</v>
       </c>
       <c r="Y16">
         <v>27.25</v>
@@ -2376,7 +2376,7 @@
         <v>2.75</v>
       </c>
       <c r="X17">
-        <v>117.872</v>
+        <v>117.87</v>
       </c>
       <c r="Y17">
         <v>58.69</v>
@@ -2486,7 +2486,7 @@
         <v>3.64</v>
       </c>
       <c r="X18">
-        <v>117.872</v>
+        <v>117.87</v>
       </c>
       <c r="Y18">
         <v>28.63</v>
@@ -2596,7 +2596,7 @@
         <v>4.36</v>
       </c>
       <c r="X19">
-        <v>117.872</v>
+        <v>117.87</v>
       </c>
       <c r="Y19">
         <v>37.52</v>
@@ -2706,7 +2706,7 @@
         <v>2.94</v>
       </c>
       <c r="X20">
-        <v>117.872</v>
+        <v>117.87</v>
       </c>
       <c r="Y20">
         <v>62.36</v>
@@ -2816,7 +2816,7 @@
         <v>2.49</v>
       </c>
       <c r="X21">
-        <v>117.872</v>
+        <v>117.87</v>
       </c>
       <c r="Y21">
         <v>41.49</v>
